--- a/biology/Botanique/Fragilariales/Fragilariales.xlsx
+++ b/biology/Botanique/Fragilariales/Fragilariales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Fragilariales  sont un ordre d'algues de la classe des Bacillariophyceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre des Fragilariales a été créé en 1962 par le botaniste et phycologue américain Paul Claude Silva (d) (1922-2014)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Fragilariales a été créé en 1962 par le botaniste et phycologue américain Paul Claude Silva (d) (1922-2014).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les genres de l'ordre des Fragilariales n'ont pas de ceinture cloisonnée, et ils peuvent avoir des rimoportules[note 1] (genres Fragilaria et Fragilariforma de la famille des Fragilariaceae) ou ne pas en avoir (genres Staurosira, Pseudostaurosira et Pseudostaurosiropsis de la famille des Staurosiraceae[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les genres de l'ordre des Fragilariales n'ont pas de ceinture cloisonnée, et ils peuvent avoir des rimoportules[note 1] (genres Fragilaria et Fragilariforma de la famille des Fragilariaceae) ou ne pas en avoir (genres Staurosira, Pseudostaurosira et Pseudostaurosiropsis de la famille des Staurosiraceae.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (2 mai 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (2 mai 2022) :
 Fragilariaceae Kützing, 1844
 Staurosiraceae Medlin, 2016</t>
         </is>
